--- a/client/test_results/unfiltered_safari_test_results.xlsx
+++ b/client/test_results/unfiltered_safari_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>2.506815433502197</v>
+        <v>0.1803960800170898</v>
       </c>
       <c r="D2" t="n">
-        <v>67.488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.428622722625732</v>
+        <v>0.1174867153167725</v>
       </c>
       <c r="D3" t="n">
-        <v>39.201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>8.526224136352539</v>
+        <v>0.3515560626983643</v>
       </c>
       <c r="D4" t="n">
-        <v>56.383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9234271049499512</v>
+        <v>0.1403241157531738</v>
       </c>
       <c r="D5" t="n">
-        <v>73.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.362241268157959</v>
+        <v>0.04364013671875</v>
       </c>
       <c r="D6" t="n">
-        <v>6.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2372941970825195</v>
+        <v>0.0446479320526123</v>
       </c>
       <c r="D7" t="n">
-        <v>6.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.780632495880127</v>
+        <v>0.1361439228057861</v>
       </c>
       <c r="D8" t="n">
-        <v>54.404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7270724773406982</v>
+        <v>0.1383850574493408</v>
       </c>
       <c r="D9" t="n">
-        <v>71.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3717913627624512</v>
+        <v>0.03995084762573242</v>
       </c>
       <c r="D10" t="n">
-        <v>8.182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3542294502258301</v>
+        <v>0.04306912422180176</v>
       </c>
       <c r="D11" t="n">
-        <v>8.182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7668373584747314</v>
+        <v>0.1463279724121094</v>
       </c>
       <c r="D12" t="n">
-        <v>56.383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7866647243499756</v>
+        <v>0.1357040405273438</v>
       </c>
       <c r="D13" t="n">
-        <v>73.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4750802516937256</v>
+        <v>0.05635976791381836</v>
       </c>
       <c r="D14" t="n">
-        <v>64.608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4758951663970947</v>
+        <v>0.04310894012451172</v>
       </c>
       <c r="D15" t="n">
-        <v>523.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8319060802459717</v>
+        <v>0.151137113571167</v>
       </c>
       <c r="D16" t="n">
-        <v>58.303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.271578073501587</v>
+        <v>0.1682040691375732</v>
       </c>
       <c r="D17" t="n">
-        <v>522.878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4346888065338135</v>
+        <v>0.04387784004211426</v>
       </c>
       <c r="D18" t="n">
-        <v>6.401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5133447647094727</v>
+        <v>0.04345989227294922</v>
       </c>
       <c r="D19" t="n">
-        <v>6.401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.138380765914917</v>
+        <v>0.1562318801879883</v>
       </c>
       <c r="D20" t="n">
-        <v>56.324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.074227571487427</v>
+        <v>0.1395237445831299</v>
       </c>
       <c r="D21" t="n">
-        <v>520.899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3505799770355225</v>
+        <v>0.06763029098510742</v>
       </c>
       <c r="D22" t="n">
-        <v>8.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4811394214630127</v>
+        <v>0.04022407531738281</v>
       </c>
       <c r="D23" t="n">
-        <v>8.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9011795520782471</v>
+        <v>0.1517479419708252</v>
       </c>
       <c r="D24" t="n">
-        <v>58.303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.037173271179199</v>
+        <v>0.1604301929473877</v>
       </c>
       <c r="D25" t="n">
-        <v>522.878</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
